--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amicu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A3730-AD58-4E8A-95F9-3363E26410C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52085390-59B2-41F0-8B41-09C7B45EF009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{5A37878E-79C6-4BB0-AA8A-D2A95B4430B5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="205">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,6 +809,14 @@
   </si>
   <si>
     <t>academics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +884,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1213,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E87AF-3217-4ACF-AE77-3DF990D10BB4}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1630,22 +1641,22 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
@@ -1656,22 +1667,22 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
@@ -1770,20 +1781,20 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
@@ -1879,22 +1890,22 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="4" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
@@ -2087,6 +2098,14 @@
       </c>
       <c r="C108" s="3" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52085390-59B2-41F0-8B41-09C7B45EF009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2581FB76-199E-4FD8-94DD-D983258C1A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{5A37878E-79C6-4BB0-AA8A-D2A95B4430B5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="209">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +817,22 @@
   </si>
   <si>
     <t>timetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +900,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1224,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E87AF-3217-4ACF-AE77-3DF990D10BB4}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1641,22 +1660,22 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
@@ -1667,22 +1686,22 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
@@ -1781,20 +1800,20 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
@@ -1890,22 +1909,22 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="8"/>
+      <c r="C83" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
@@ -2106,6 +2125,22 @@
       </c>
       <c r="C109" s="4" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2581FB76-199E-4FD8-94DD-D983258C1A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4927DC7-DA05-42D5-B0DD-BE36A4FDAF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{5A37878E-79C6-4BB0-AA8A-D2A95B4430B5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="211">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,6 +833,14 @@
   </si>
   <si>
     <t>sign up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사행정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic resource</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +908,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1243,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E87AF-3217-4ACF-AE77-3DF990D10BB4}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1660,22 +1671,22 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
@@ -1686,22 +1697,22 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
@@ -1800,20 +1811,20 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
@@ -1909,22 +1920,22 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="6" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
@@ -2141,6 +2152,14 @@
       </c>
       <c r="C111" s="5" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT900x\Documents\GitHub\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2581FB76-199E-4FD8-94DD-D983258C1A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{5A37878E-79C6-4BB0-AA8A-D2A95B4430B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="305">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,13 +832,397 @@
   </si>
   <si>
     <t>sign up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e'lon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etibor bering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o'quv rejasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kollej</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magistratura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qabul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stipendiya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fakultet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o'qish uchun tulov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to'lov narh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspirant talaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talabalar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qayta qabul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akadem tatil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muddat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baholarni hisoblash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jarayon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ihtiyoriy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umumiy sabab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kasallik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tug'ish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biznes boshlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akademik ogohlantirish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qayta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almashinuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erta bitiruv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ta'til darslari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ikkinchi mutahasislik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kredit birjasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter injeneriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c dasturlash </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter texnologiya tanishish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multimediya tanishish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c dasturlash ammaliy qullash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discret matimatika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++ dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material konstruktsiyasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web programma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter konstruktsiyasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ishlatuv tizimi O/S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma'lumotlar bazasi DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server dasturlash tili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미해갸스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded sistema dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umumiy loyiha proekt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informatsiya himoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amaliy rasm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amaliy loyiha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software tahlil dizayn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web DB dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud katta malumotlar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobil web dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobil dastur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded dastur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dastur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybridge loyihasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raqamli tarkibini rejalashtirish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplikatsiya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hissiy muhandislik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yozgi semestr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qishgi semestr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abiturient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakalavr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jadval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank anketa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro'yxatdan o'tkazmoq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qaytish talabasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homiladorlik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yo'qligi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uqishdan ketish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muddat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semestr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanishtirish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mantiqiy tutashuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter grafikasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobil dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun'iy intellekt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axborot vositasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter tarmog' dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded ishlatuv tizim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raqamli dijital ovoz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doktorant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>olimlik darajasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro'yxatdan o'tish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -892,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +1292,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1242,16 +1628,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E87AF-3217-4ACF-AE77-3DF990D10BB4}">
-  <dimension ref="A1:E111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1259,714 +1645,1134 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="G9" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="G10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="G12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="G16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="G28" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="G29" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="G30" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="G31" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="G33" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="G34" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="G35" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="G36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="G37" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="G38" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="G39" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="G40" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="G41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="G42" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="G47" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="9" t="s">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="G52" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="9" t="s">
+      <c r="G54" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="G55" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>105</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="G64" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="G65" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="G66" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="G67" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="9" t="s">
+      <c r="G68" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D69" s="7"/>
+      <c r="G69" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>155</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="G71" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>131</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="G72" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>133</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="G73" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="G74" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>137</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="G75" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>138</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="G76" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="C77" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>140</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="G79" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>144</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>146</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>151</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="7" t="s">
+      <c r="G82" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="6" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="G83" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>129</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>157</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>159</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -1974,177 +2780,285 @@
         <v>166</v>
       </c>
       <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>165</v>
       </c>
       <c r="C91" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>168</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>165</v>
       </c>
       <c r="C93" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>170</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>174</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="G96" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>176</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="G97" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>180</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="G99" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>185</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="G100" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>187</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="G101" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>189</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="G102" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>192</v>
       </c>
       <c r="C103" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="G103" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>196</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="G104" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>197</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="G105" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>198</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="G106" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>199</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="G107" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="G109" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>205</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="G110" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>207</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>208</v>
       </c>
+      <c r="G111" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E102">
+  <sortState ref="A1:E102">
     <sortCondition ref="C1:C13"/>
   </sortState>
   <mergeCells count="8">

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT900x\Documents\GitHub\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4927DC7-DA05-42D5-B0DD-BE36A4FDAF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{5A37878E-79C6-4BB0-AA8A-D2A95B4430B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="305">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -836,18 +835,394 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학사행정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>academic resource</t>
+    <t>e'lon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etibor bering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o'quv rejasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kollej</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magistratura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qabul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stipendiya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fakultet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o'qish uchun tulov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to'lov narh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspirant talaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talabalar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qayta qabul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akadem tatil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muddat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baholarni hisoblash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jarayon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ihtiyoriy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umumiy sabab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kasallik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tug'ish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biznes boshlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>akademik ogohlantirish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qayta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almashinuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erta bitiruv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ta'til darslari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ikkinchi mutahasislik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kredit birjasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter injeneriya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c dasturlash </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter texnologiya tanishish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multimediya tanishish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c dasturlash ammaliy qullash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discret matimatika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++ dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material konstruktsiyasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web programma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter konstruktsiyasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ishlatuv tizimi O/S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma'lumotlar bazasi DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server dasturlash tili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미해갸스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded sistema dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umumiy loyiha proekt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informatsiya himoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amaliy rasm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amaliy loyiha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software tahlil dizayn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web DB dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud katta malumotlar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobil web dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobil dastur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded dastur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dastur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybridge loyihasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raqamli tarkibini rejalashtirish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplikatsiya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hissiy muhandislik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yozgi semestr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qishgi semestr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abiturient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bakalavr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jadval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank anketa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro'yxatdan o'tkazmoq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qaytish talabasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homiladorlik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yo'qligi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uqishdan ketish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muddat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semestr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanishtirish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mantiqiy tutashuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter grafikasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobil dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun'iy intellekt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axborot vositasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompyuter tarmog' dasturlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded ishlatuv tizim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raqamli dijital ovoz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doktorant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>olimlik darajasi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ro'yxatdan o'tish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -919,7 +1294,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1253,16 +1628,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E87AF-3217-4ACF-AE77-3DF990D10BB4}">
-  <dimension ref="A1:E112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1270,407 +1645,647 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="G9" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="G10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="G12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="G16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="G28" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="G29" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="G30" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="G31" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="G33" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="G34" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="G35" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="G36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="G37" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="G38" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="G39" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="G40" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="G41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="G42" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="G47" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="10" t="s">
         <v>100</v>
       </c>
@@ -1680,23 +2295,36 @@
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="10" t="s">
         <v>103</v>
       </c>
@@ -1706,111 +2334,181 @@
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>105</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="G64" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="G65" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="G66" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="G67" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="G68" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="10" t="s">
         <v>128</v>
       </c>
@@ -1819,107 +2517,171 @@
         <v>183</v>
       </c>
       <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="G69" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>155</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="G71" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>131</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="G72" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>133</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="G73" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="G74" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>137</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="G75" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>138</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="G76" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="C77" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>140</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="G79" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>144</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>146</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>151</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="8" t="s">
         <v>184</v>
       </c>
@@ -1929,55 +2691,88 @@
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>129</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>157</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>159</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -1985,185 +2780,285 @@
         <v>166</v>
       </c>
       <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>165</v>
       </c>
       <c r="C91" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>168</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>165</v>
       </c>
       <c r="C93" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>170</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>174</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="G96" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>176</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="G97" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>180</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="G99" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>185</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="G100" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>187</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="G101" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>189</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="G102" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>192</v>
       </c>
       <c r="C103" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="G103" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>196</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="G104" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>197</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="G105" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>198</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="G106" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>199</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="G107" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="G109" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>205</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="G110" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>207</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>209</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="G111" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E102">
+  <sortState ref="A1:E102">
     <sortCondition ref="C1:C13"/>
   </sortState>
   <mergeCells count="8">

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT900x\Documents\GitHub\fweb\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13100\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528848E2-A3F6-4C01-8670-D314BE17FF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
+    <workbookView xWindow="-1095" yWindow="510" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="405">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성적 산출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,9 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Automata and Compiler</t>
-  </si>
-  <si>
     <t>오토마타, 컴파일러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,9 +613,6 @@
   </si>
   <si>
     <t>Project of Practical Work</t>
-  </si>
-  <si>
-    <t>Software Analysis &amp; Design</t>
   </si>
   <si>
     <t>Server Programming</t>
@@ -1216,25 +1207,469 @@
   </si>
   <si>
     <t>ro'yxatdan o'tish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖学金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志愿，志愿书（申请书）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学部（本科）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生（本科生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复读生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再入学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>산출</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩公示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀孕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看护（护理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谕告缺席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再入学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅修专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学分交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合专业课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机工程学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机工学概论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体概论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机图形学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动设备编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automata and Compiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动机和编译器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情报保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场实习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Analysis &amp; Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件分析与设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页DB程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud/大数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字内容策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字音响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人机交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感性工学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬季学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏季学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应届毕业生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册会员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1247,7 +1682,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1275,7 +1718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,9 +1758,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1628,16 +2074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1653,25 +2097,31 @@
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1679,38 +2129,47 @@
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1718,12 +2177,15 @@
         <v>22</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1731,12 +2193,15 @@
         <v>32</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1744,12 +2209,15 @@
         <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1757,12 +2225,15 @@
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1770,12 +2241,15 @@
         <v>16</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1783,12 +2257,15 @@
         <v>12</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1796,25 +2273,31 @@
         <v>4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1822,12 +2305,15 @@
         <v>27</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1835,12 +2321,15 @@
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1850,8 +2339,11 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1859,12 +2351,15 @@
         <v>36</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1872,12 +2367,15 @@
         <v>34</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1885,12 +2383,15 @@
         <v>38</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1898,25 +2399,31 @@
         <v>40</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1924,12 +2431,15 @@
         <v>44</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1937,371 +2447,458 @@
         <v>46</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
       <c r="G25" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
       <c r="G36" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
       <c r="G37" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
       <c r="G39" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
       <c r="G41" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
       <c r="G42" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="C44" t="s">
-        <v>86</v>
-      </c>
       <c r="G44" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
       <c r="G45" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="K45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="K46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="K47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="K48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
       <c r="G50" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="K50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="K51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="G52" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="K52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2311,36 +2908,42 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="G55" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="K55" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="7"/>
@@ -2350,180 +2953,219 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="K57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
+      <c r="C58" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G58" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="K59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="K60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="K61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="K62" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="K64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="K65" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="K66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="K67" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="K68" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D69" s="7"/>
       <c r="G69" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="K69" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="7"/>
@@ -2532,172 +3174,208 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="K71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>133</v>
+      <c r="K72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="K73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="K74" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="K75" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="K76" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="K78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="K79" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="K80" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="K81" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="K82" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="G83" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="K83" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="7"/>
@@ -2707,355 +3385,436 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>153</v>
+        <v>380</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="K85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="K86" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="K87" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="K88" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="K89" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D90" s="2"/>
       <c r="G90" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="K90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="K91" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="K92" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="K93" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="K94" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="K95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="K96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="K97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>180</v>
+      <c r="K98" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="K99" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="K100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="K101" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="K102" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="K103" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="K104" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="K105" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="K106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="K107" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="K108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="K109" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="K110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
+      <c r="K111" t="s">
+        <v>404</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:E102">

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13100\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528848E2-A3F6-4C01-8670-D314BE17FF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F78D15-2930-4542-A513-57458F17FE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1095" yWindow="510" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="505">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1652,6 +1652,306 @@
   <si>
     <t>注册会员</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>公告事項</t>
+  </si>
+  <si>
+    <t>課程</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>大學</t>
+  </si>
+  <si>
+    <t>研究生院</t>
+  </si>
+  <si>
+    <t>格式</t>
+  </si>
+  <si>
+    <t>入學</t>
+  </si>
+  <si>
+    <t>獎學金</t>
+  </si>
+  <si>
+    <t>誌願，誌願書（申請書）</t>
+  </si>
+  <si>
+    <t>學部（本科）</t>
+  </si>
+  <si>
+    <t>註冊</t>
+  </si>
+  <si>
+    <t>學費</t>
+  </si>
+  <si>
+    <t>費用</t>
+  </si>
+  <si>
+    <t>學校指南</t>
+  </si>
+  <si>
+    <t>大學生（本科生）</t>
+  </si>
+  <si>
+    <t>研究生</t>
+  </si>
+  <si>
+    <t>在校生</t>
+  </si>
+  <si>
+    <t>復讀生</t>
+  </si>
+  <si>
+    <t>再入學生</t>
+  </si>
+  <si>
+    <t>休學</t>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <t>成績公示</t>
+  </si>
+  <si>
+    <t>過程</t>
+  </si>
+  <si>
+    <t>入伍</t>
+  </si>
+  <si>
+    <t>壹般的原因</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <t>懷孕</t>
+  </si>
+  <si>
+    <t>出產</t>
+  </si>
+  <si>
+    <t>看護（護理）</t>
+  </si>
+  <si>
+    <t>創業</t>
+  </si>
+  <si>
+    <t>資格</t>
+  </si>
+  <si>
+    <t>成績</t>
+  </si>
+  <si>
+    <t>分數</t>
+  </si>
+  <si>
+    <t>學術警告</t>
+  </si>
+  <si>
+    <t>諭告缺席</t>
+  </si>
+  <si>
+    <t>傳遞</t>
+  </si>
+  <si>
+    <t>再入學</t>
+  </si>
+  <si>
+    <t>插班</t>
+  </si>
+  <si>
+    <t>退學</t>
+  </si>
+  <si>
+    <t>學期</t>
+  </si>
+  <si>
+    <t>提前畢業</t>
+  </si>
+  <si>
+    <t>假期學期</t>
+  </si>
+  <si>
+    <t>輔修專業</t>
+  </si>
+  <si>
+    <t>第二專業</t>
+  </si>
+  <si>
+    <t>學分</t>
+  </si>
+  <si>
+    <t>學分交換</t>
+  </si>
+  <si>
+    <t>融合專業課程</t>
+  </si>
+  <si>
+    <t>計算機工程學</t>
+  </si>
+  <si>
+    <t>C語言基礎</t>
+  </si>
+  <si>
+    <t>計算機工學概論</t>
+  </si>
+  <si>
+    <t>多媒體概論</t>
+  </si>
+  <si>
+    <t>C語言應用</t>
+  </si>
+  <si>
+    <t>離散數學</t>
+  </si>
+  <si>
+    <t>邏輯電路</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>數據結構</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Web編程</t>
+  </si>
+  <si>
+    <t>計算機結構</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>操作系統</t>
+  </si>
+  <si>
+    <t>數據庫</t>
+  </si>
+  <si>
+    <t>計算機圖形學</t>
+  </si>
+  <si>
+    <t>服務器編程</t>
+  </si>
+  <si>
+    <t>移動設備編程</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>數據通信</t>
+  </si>
+  <si>
+    <t>嵌入式系統</t>
+  </si>
+  <si>
+    <t>自動機和編譯器</t>
+  </si>
+  <si>
+    <t>綜合項目</t>
+  </si>
+  <si>
+    <t>情報保護</t>
+  </si>
+  <si>
+    <t>網絡編程</t>
+  </si>
+  <si>
+    <t>影像處理</t>
+  </si>
+  <si>
+    <t>現場實習</t>
+  </si>
+  <si>
+    <t>軟件分析與設計</t>
+  </si>
+  <si>
+    <t>網頁DB程序設計</t>
+  </si>
+  <si>
+    <t>Cloud/大數據</t>
+  </si>
+  <si>
+    <t>嵌入式操作系統</t>
+  </si>
+  <si>
+    <t>移動網絡</t>
+  </si>
+  <si>
+    <t>移動應用</t>
+  </si>
+  <si>
+    <t>程序設計</t>
+  </si>
+  <si>
+    <t>混合項目</t>
+  </si>
+  <si>
+    <t>數字內容策劃</t>
+  </si>
+  <si>
+    <t>數字音響</t>
+  </si>
+  <si>
+    <t>動畫</t>
+  </si>
+  <si>
+    <t>人機交互</t>
+  </si>
+  <si>
+    <t>感性工學</t>
+  </si>
+  <si>
+    <t>教養</t>
+  </si>
+  <si>
+    <t>冬季學期</t>
+  </si>
+  <si>
+    <t>夏季學期</t>
+  </si>
+  <si>
+    <t>應屆畢業生</t>
+  </si>
+  <si>
+    <t>學士</t>
+  </si>
+  <si>
+    <t>碩士</t>
+  </si>
+  <si>
+    <t>博士</t>
+  </si>
+  <si>
+    <t>學位</t>
+  </si>
+  <si>
+    <t>時間表</t>
+  </si>
+  <si>
+    <t>登錄</t>
+  </si>
+  <si>
+    <t>註冊會員</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +2018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1740,6 +2040,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1757,9 +2063,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2075,13 +2378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2089,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2104,9 +2409,12 @@
       <c r="K2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="N2" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -2120,8 +2428,11 @@
       <c r="K3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N3" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2136,9 +2447,12 @@
       <c r="K4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="N4" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
@@ -2152,9 +2466,12 @@
       <c r="K5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="N5" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
@@ -2168,8 +2485,11 @@
       <c r="K6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N6" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2184,8 +2504,11 @@
       <c r="K7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N7" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2200,8 +2523,11 @@
       <c r="K8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N8" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2216,8 +2542,11 @@
       <c r="K9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N9" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2232,8 +2561,11 @@
       <c r="K10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N10" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2248,8 +2580,11 @@
       <c r="K11" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N11" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2264,8 +2599,11 @@
       <c r="K12" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N12" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2280,9 +2618,12 @@
       <c r="K13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="N13" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
@@ -2296,8 +2637,11 @@
       <c r="K14" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N14" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2312,8 +2656,11 @@
       <c r="K15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N15" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2328,8 +2675,11 @@
       <c r="K16" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2342,8 +2692,11 @@
       <c r="K17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N17" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2358,8 +2711,11 @@
       <c r="K18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N18" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2374,8 +2730,11 @@
       <c r="K19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N19" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2390,8 +2749,11 @@
       <c r="K20" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N20" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2406,9 +2768,12 @@
       <c r="K21" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="N21" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
@@ -2422,8 +2787,11 @@
       <c r="K22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N22" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2438,8 +2806,11 @@
       <c r="K23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N23" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2454,9 +2825,12 @@
       <c r="K24" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="N24" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C25" t="s">
@@ -2470,8 +2844,11 @@
       <c r="K25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N25" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2486,8 +2863,11 @@
       <c r="K26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N26" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2502,8 +2882,11 @@
       <c r="K27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N27" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2518,8 +2901,11 @@
       <c r="K28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N28" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2534,9 +2920,12 @@
       <c r="K29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="N29" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
@@ -2550,8 +2939,11 @@
       <c r="K30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N30" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2566,8 +2958,11 @@
       <c r="K31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N31" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2580,9 +2975,12 @@
       <c r="K32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="N32" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C33" t="s">
@@ -2596,8 +2994,11 @@
       <c r="K33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N33" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2612,8 +3013,11 @@
       <c r="K34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N34" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2628,8 +3032,11 @@
       <c r="K35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N35" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2644,8 +3051,11 @@
       <c r="K36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N36" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2660,8 +3070,11 @@
       <c r="K37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N37" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2676,8 +3089,11 @@
       <c r="K38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N38" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2692,8 +3108,11 @@
       <c r="K39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N39" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2708,8 +3127,11 @@
       <c r="K40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N40" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2724,8 +3146,11 @@
       <c r="K41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N41" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2740,8 +3165,11 @@
       <c r="K42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N42" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2756,8 +3184,11 @@
       <c r="K43" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N43" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2772,8 +3203,11 @@
       <c r="K44" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N44" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -2788,8 +3222,11 @@
       <c r="K45" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N45" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2804,8 +3241,11 @@
       <c r="K46" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N46" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2820,8 +3260,11 @@
       <c r="K47" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N47" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2834,8 +3277,11 @@
       <c r="K48" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N48" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2848,8 +3294,11 @@
       <c r="K49" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N49" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2864,8 +3313,11 @@
       <c r="K50" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N50" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -2878,17 +3330,20 @@
       <c r="K51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="N51" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="G52" s="6" t="s">
         <v>239</v>
       </c>
@@ -2897,18 +3352,22 @@
       <c r="K52" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="N52" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -2923,17 +3382,20 @@
       <c r="K54" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="N54" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="G55" s="6" t="s">
         <v>241</v>
       </c>
@@ -2942,18 +3404,22 @@
       <c r="K55" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="N55" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -2970,8 +3436,11 @@
       <c r="K57" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N57" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -2986,8 +3455,11 @@
       <c r="K58" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N58" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -3002,8 +3474,11 @@
       <c r="K59" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N59" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -3018,8 +3493,11 @@
       <c r="K60" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N60" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -3034,8 +3512,11 @@
       <c r="K61" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N61" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -3050,8 +3531,11 @@
       <c r="K62" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N62" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -3066,8 +3550,11 @@
       <c r="K63" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N63" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -3082,8 +3569,11 @@
       <c r="K64" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N64" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -3098,8 +3588,11 @@
       <c r="K65" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N65" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -3114,8 +3607,11 @@
       <c r="K66" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N66" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -3130,8 +3626,11 @@
       <c r="K67" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N67" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -3146,16 +3645,19 @@
       <c r="K68" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
+      <c r="N68" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="9"/>
       <c r="G69" s="6" t="s">
         <v>292</v>
       </c>
@@ -3164,17 +3666,21 @@
       <c r="K69" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="N69" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N70" s="7"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -3189,8 +3695,11 @@
       <c r="K71" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N71" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -3205,9 +3714,12 @@
       <c r="K72" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+      <c r="N72" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3221,8 +3733,11 @@
       <c r="K73" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N73" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -3237,8 +3752,11 @@
       <c r="K74" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N74" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -3253,8 +3771,11 @@
       <c r="K75" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N75" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -3269,16 +3790,20 @@
       <c r="K76" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N76" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -3291,8 +3816,11 @@
       <c r="K78" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N78" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -3307,8 +3835,11 @@
       <c r="K79" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N79" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -3323,8 +3854,11 @@
       <c r="K80" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N80" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>144</v>
       </c>
@@ -3339,8 +3873,11 @@
       <c r="K81" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N81" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -3355,17 +3892,20 @@
       <c r="K82" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="N82" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
       <c r="G83" s="6" t="s">
         <v>259</v>
       </c>
@@ -3374,18 +3914,22 @@
       <c r="K83" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="N83" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N84" s="7"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -3400,8 +3944,11 @@
       <c r="K85" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N85" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -3416,8 +3963,11 @@
       <c r="K86" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N86" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -3432,8 +3982,11 @@
       <c r="K87" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N87" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -3448,8 +4001,11 @@
       <c r="K88" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N88" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -3464,8 +4020,11 @@
       <c r="K89" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N89" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -3481,8 +4040,11 @@
       <c r="K90" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N90" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>162</v>
       </c>
@@ -3497,8 +4059,11 @@
       <c r="K91" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N91" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -3515,8 +4080,11 @@
       <c r="K92" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N92" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -3531,8 +4099,11 @@
       <c r="K93" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N93" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -3547,8 +4118,11 @@
       <c r="K94" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N94" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -3563,8 +4137,11 @@
       <c r="K95" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N95" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -3579,8 +4156,11 @@
       <c r="K96" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N96" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -3595,8 +4175,11 @@
       <c r="K97" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N97" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -3609,9 +4192,12 @@
       <c r="K98" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
+      <c r="N98" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3625,8 +4211,11 @@
       <c r="K99" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N99" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -3641,8 +4230,11 @@
       <c r="K100" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N100" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -3657,8 +4249,11 @@
       <c r="K101" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N101" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>186</v>
       </c>
@@ -3673,8 +4268,11 @@
       <c r="K102" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N102" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -3689,8 +4287,11 @@
       <c r="K103" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N103" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>193</v>
       </c>
@@ -3705,8 +4306,11 @@
       <c r="K104" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N104" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -3721,8 +4325,11 @@
       <c r="K105" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N105" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>195</v>
       </c>
@@ -3737,8 +4344,11 @@
       <c r="K106" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N106" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>196</v>
       </c>
@@ -3753,8 +4363,11 @@
       <c r="K107" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N107" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>198</v>
       </c>
@@ -3767,8 +4380,11 @@
       <c r="K108" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N108" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -3783,8 +4399,11 @@
       <c r="K109" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N109" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>202</v>
       </c>
@@ -3799,8 +4418,11 @@
       <c r="K110" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N110" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -3814,6 +4436,9 @@
       <c r="I111" s="6"/>
       <c r="K111" t="s">
         <v>404</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT900x\Documents\GitHub\fweb\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957079B-9174-4B58-A605-1FD2A6FBF2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="309">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,13 +1217,29 @@
   </si>
   <si>
     <t>ro'yxatdan o'tish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예비수강신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-register class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1275,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,6 +1312,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1628,14 +1648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -2286,15 +2306,15 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
@@ -2302,11 +2322,11 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2325,15 +2345,15 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
@@ -2341,11 +2361,11 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -2509,14 +2529,14 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="8"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
@@ -2524,10 +2544,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -2682,15 +2702,15 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
@@ -2698,11 +2718,11 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -3057,8 +3077,24 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:E102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E102">
     <sortCondition ref="C1:C13"/>
   </sortState>
   <mergeCells count="8">

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC05225-04F4-4DBC-B9F5-627E642B2AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A7973-8AA7-451A-932B-380170ED0542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="311">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,6 +1233,14 @@
   </si>
   <si>
     <t>pre-register class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집요강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission guide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,6 +1320,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1649,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2306,15 +2317,15 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
@@ -2322,11 +2333,11 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2345,15 +2356,15 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
@@ -2361,11 +2372,11 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -2529,14 +2540,14 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="9"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
@@ -2544,10 +2555,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -2702,15 +2713,15 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="8" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
@@ -2718,11 +2729,11 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -3091,6 +3102,14 @@
       </c>
       <c r="C113" s="7" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A7973-8AA7-451A-932B-380170ED0542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FCAA3-0C1E-49FA-AE87-17D7F225434A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="321">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1241,6 +1241,46 @@
   </si>
   <si>
     <t>admission guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General-Basic(GB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General-Conversions(GC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General-Major(GM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major-Mandatory(MR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major-Elective(ME)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,6 +1360,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1660,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2317,15 +2360,15 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
@@ -2333,11 +2376,11 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2356,15 +2399,15 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="14" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
@@ -2372,11 +2415,11 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -2540,14 +2583,14 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="14" t="s">
+      <c r="B69" s="13"/>
+      <c r="C69" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="9"/>
+      <c r="D69" s="10"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
@@ -2555,10 +2598,10 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -2713,15 +2756,15 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="12"/>
+      <c r="C83" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
@@ -2729,11 +2772,11 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -3110,6 +3153,46 @@
       </c>
       <c r="C114" s="8" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>319</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\11.19\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FCAA3-0C1E-49FA-AE87-17D7F225434A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="506">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,13 +1281,2475 @@
   <si>
     <t>Major-Elective(ME)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>概</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>公告事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+  </si>
+  <si>
+    <t>公告事項</t>
+  </si>
+  <si>
+    <r>
+      <t>课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>課程</t>
+  </si>
+  <si>
+    <r>
+      <t>教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>育</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>大學</t>
+  </si>
+  <si>
+    <r>
+      <t>研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>究生院</t>
+    </r>
+  </si>
+  <si>
+    <t>格式</t>
+  </si>
+  <si>
+    <r>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>入學</t>
+  </si>
+  <si>
+    <r>
+      <t>奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>獎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>學金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>志愿，志愿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（申</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>誌願，誌願書（申請書）</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部（本科）</t>
+    </r>
+  </si>
+  <si>
+    <t>學部（本科）</t>
+  </si>
+  <si>
+    <r>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>册</t>
+    </r>
+  </si>
+  <si>
+    <t>註冊</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>费</t>
+    </r>
+  </si>
+  <si>
+    <t>學費</t>
+  </si>
+  <si>
+    <r>
+      <t>费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用</t>
+    </r>
+  </si>
+  <si>
+    <t>費用</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校指南</t>
+    </r>
+  </si>
+  <si>
+    <t>學校指南</t>
+  </si>
+  <si>
+    <r>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生（本科生）</t>
+    </r>
+  </si>
+  <si>
+    <t>大學生（本科生）</t>
+  </si>
+  <si>
+    <r>
+      <t>研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>究生</t>
+    </r>
+  </si>
+  <si>
+    <t>在校生</t>
+  </si>
+  <si>
+    <r>
+      <t>复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生</t>
+    </r>
+  </si>
+  <si>
+    <t>復讀生</t>
+  </si>
+  <si>
+    <r>
+      <t>再入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生</t>
+    </r>
+  </si>
+  <si>
+    <t>再入學生</t>
+  </si>
+  <si>
+    <r>
+      <t>休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>休學</t>
+  </si>
+  <si>
+    <r>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+  </si>
+  <si>
+    <t>期間</t>
+  </si>
+  <si>
+    <r>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公示</t>
+    </r>
+  </si>
+  <si>
+    <t>成績公示</t>
+  </si>
+  <si>
+    <r>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>過程</t>
+  </si>
+  <si>
+    <t>入伍</t>
+  </si>
+  <si>
+    <t>一般的原因</t>
+  </si>
+  <si>
+    <t>壹般的原因</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <r>
+      <t>怀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>孕</t>
+    </r>
+  </si>
+  <si>
+    <t>懷孕</t>
+  </si>
+  <si>
+    <r>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>產</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理）</t>
+    </r>
+  </si>
+  <si>
+    <t>看護（護理）</t>
+  </si>
+  <si>
+    <t>创业</t>
+  </si>
+  <si>
+    <t>創業</t>
+  </si>
+  <si>
+    <r>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>格</t>
+    </r>
+  </si>
+  <si>
+    <t>資格</t>
+  </si>
+  <si>
+    <r>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绩</t>
+    </r>
+  </si>
+  <si>
+    <t>成績</t>
+  </si>
+  <si>
+    <r>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+  </si>
+  <si>
+    <t>分數</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>警告</t>
+    </r>
+  </si>
+  <si>
+    <t>學術警告</t>
+  </si>
+  <si>
+    <r>
+      <t>谕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>告缺席</t>
+    </r>
+  </si>
+  <si>
+    <t>諭告缺席</t>
+  </si>
+  <si>
+    <t>传递</t>
+  </si>
+  <si>
+    <t>傳遞</t>
+  </si>
+  <si>
+    <r>
+      <t>再入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>再入學</t>
+  </si>
+  <si>
+    <r>
+      <t>插</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>班</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>退學</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期</t>
+    </r>
+  </si>
+  <si>
+    <t>學期</t>
+  </si>
+  <si>
+    <r>
+      <t>提前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毕业</t>
+    </r>
+  </si>
+  <si>
+    <t>提前畢業</t>
+  </si>
+  <si>
+    <r>
+      <t>假期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期</t>
+    </r>
+  </si>
+  <si>
+    <t>假期學期</t>
+  </si>
+  <si>
+    <r>
+      <t>辅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业</t>
+    </r>
+  </si>
+  <si>
+    <t>輔修專業</t>
+  </si>
+  <si>
+    <r>
+      <t>第二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业</t>
+    </r>
+  </si>
+  <si>
+    <t>第二專業</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>學分</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换</t>
+    </r>
+  </si>
+  <si>
+    <t>學分交換</t>
+  </si>
+  <si>
+    <r>
+      <t>融合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>融合專業課程</t>
+  </si>
+  <si>
+    <r>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算机工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>計算機工程學</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>言基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+  </si>
+  <si>
+    <t>C語言基礎</t>
+  </si>
+  <si>
+    <r>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算机工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学概</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>計算機工學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>概</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>論</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>多媒体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>概</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>多媒體</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>概</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>論</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用</t>
+    </r>
+  </si>
+  <si>
+    <t>C語言應用</t>
+  </si>
+  <si>
+    <r>
+      <t>离散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数学</t>
+    </r>
+  </si>
+  <si>
+    <t>離散數學</t>
+  </si>
+  <si>
+    <r>
+      <t>逻辑电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路</t>
+    </r>
+  </si>
+  <si>
+    <t>邏輯電路</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <r>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构</t>
+    </r>
+  </si>
+  <si>
+    <t>數據結構</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <r>
+      <t>Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>Web編程</t>
+  </si>
+  <si>
+    <r>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构</t>
+    </r>
+  </si>
+  <si>
+    <t>計算機結構</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <r>
+      <t>操作系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+  </si>
+  <si>
+    <t>操作系統</t>
+  </si>
+  <si>
+    <r>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+  </si>
+  <si>
+    <t>數據庫</t>
+  </si>
+  <si>
+    <r>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>計算機圖形學</t>
+  </si>
+  <si>
+    <r>
+      <t>服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>服務器編程</t>
+  </si>
+  <si>
+    <r>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动设备编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>移動設備編程</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <r>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>据通信</t>
+    </r>
+  </si>
+  <si>
+    <t>數據通信</t>
+  </si>
+  <si>
+    <r>
+      <t>嵌入式系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+  </si>
+  <si>
+    <t>嵌入式系統</t>
+  </si>
+  <si>
+    <r>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+  </si>
+  <si>
+    <t>自動機和編譯器</t>
+  </si>
+  <si>
+    <r>
+      <t>综</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+  </si>
+  <si>
+    <t>綜合項目</t>
+  </si>
+  <si>
+    <r>
+      <t>情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>护</t>
+    </r>
+  </si>
+  <si>
+    <t>情報保護</t>
+  </si>
+  <si>
+    <r>
+      <t>网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>络编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+  </si>
+  <si>
+    <t>網絡編程</t>
+  </si>
+  <si>
+    <r>
+      <t>影像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理</t>
+    </r>
+  </si>
+  <si>
+    <t>影像處理</t>
+  </si>
+  <si>
+    <t>现场实习</t>
+  </si>
+  <si>
+    <t>現場實習</t>
+  </si>
+  <si>
+    <r>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+  </si>
+  <si>
+    <t>軟件分析與設計</t>
+  </si>
+  <si>
+    <r>
+      <t>网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DB程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+  </si>
+  <si>
+    <t>網頁DB程序設計</t>
+  </si>
+  <si>
+    <r>
+      <t>Cloud/大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>据</t>
+    </r>
+  </si>
+  <si>
+    <t>Cloud/大數據</t>
+  </si>
+  <si>
+    <r>
+      <t>嵌入式操作系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+  </si>
+  <si>
+    <t>嵌入式操作系統</t>
+  </si>
+  <si>
+    <r>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>络</t>
+    </r>
+  </si>
+  <si>
+    <t>移動網絡</t>
+  </si>
+  <si>
+    <r>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用</t>
+    </r>
+  </si>
+  <si>
+    <t>移動應用</t>
+  </si>
+  <si>
+    <r>
+      <t>程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+  </si>
+  <si>
+    <t>程序設計</t>
+  </si>
+  <si>
+    <r>
+      <t>混合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目</t>
+    </r>
+  </si>
+  <si>
+    <t>混合項目</t>
+  </si>
+  <si>
+    <r>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>划</t>
+    </r>
+  </si>
+  <si>
+    <t>數字內容策劃</t>
+  </si>
+  <si>
+    <r>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>响</t>
+    </r>
+  </si>
+  <si>
+    <t>數字音響</t>
+  </si>
+  <si>
+    <r>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+  </si>
+  <si>
+    <t>動畫</t>
+  </si>
+  <si>
+    <t>人机交互</t>
+  </si>
+  <si>
+    <t>人機交互</t>
+  </si>
+  <si>
+    <r>
+      <t>感性工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+  </si>
+  <si>
+    <t>感性工學</t>
+  </si>
+  <si>
+    <r>
+      <t>教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>养</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>養</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>冬季</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期</t>
+    </r>
+  </si>
+  <si>
+    <t>冬季學期</t>
+  </si>
+  <si>
+    <r>
+      <t>夏季</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期</t>
+    </r>
+  </si>
+  <si>
+    <t>夏季學期</t>
+  </si>
+  <si>
+    <r>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>届</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毕业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生</t>
+    </r>
+  </si>
+  <si>
+    <t>應屆畢業生</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>士</t>
+    </r>
+  </si>
+  <si>
+    <t>學士</t>
+  </si>
+  <si>
+    <r>
+      <t>硕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>士</t>
+    </r>
+  </si>
+  <si>
+    <t>碩士</t>
+  </si>
+  <si>
+    <t>博士</t>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
+  </si>
+  <si>
+    <t>學位</t>
+  </si>
+  <si>
+    <r>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+  </si>
+  <si>
+    <t>時間表</t>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+  </si>
+  <si>
+    <t>登錄</t>
+  </si>
+  <si>
+    <r>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>册会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+  </si>
+  <si>
+    <t>註冊會員</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,6 +3778,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1340,7 +3825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,6 +3856,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +3876,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1702,16 +4199,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1719,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1731,8 +4228,16 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1744,8 +4249,16 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1757,8 +4270,16 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1770,8 +4291,16 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1783,8 +4312,16 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1796,8 +4333,16 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1809,8 +4354,16 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1822,8 +4375,16 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1835,8 +4396,16 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1848,8 +4417,16 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1861,8 +4438,16 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1874,8 +4459,16 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1887,8 +4480,16 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1900,8 +4501,16 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1913,8 +4522,16 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1924,8 +4541,16 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1937,8 +4562,16 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1950,8 +4583,16 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1963,8 +4604,16 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1976,8 +4625,16 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1989,8 +4646,16 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2002,8 +4667,16 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2015,8 +4688,16 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2028,8 +4709,16 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2041,8 +4730,16 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2054,8 +4751,16 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -2067,8 +4772,16 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2080,8 +4793,16 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2093,8 +4814,16 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2106,8 +4835,16 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2117,8 +4854,16 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2130,8 +4875,16 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2143,8 +4896,16 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2156,8 +4917,16 @@
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2169,8 +4938,16 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2182,8 +4959,16 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -2195,8 +4980,16 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2208,8 +5001,16 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K39" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2221,8 +5022,16 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2234,8 +5043,16 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2247,8 +5064,16 @@
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2260,8 +5085,16 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2273,8 +5106,16 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="K44" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2286,8 +5127,16 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="K45" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2299,8 +5148,16 @@
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="K46" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2312,8 +5169,16 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="K47" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2323,8 +5188,16 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="K48" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2334,8 +5207,16 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2347,8 +5228,16 @@
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="K50" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -2358,34 +5247,54 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="13" t="s">
+      <c r="K51" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="K52" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2397,34 +5306,54 @@
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="13" t="s">
+      <c r="K54" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="K55" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -2438,8 +5367,16 @@
         <v>293</v>
       </c>
       <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="K57" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -2451,8 +5388,16 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K58" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -2464,8 +5409,16 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="K59" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -2477,8 +5430,16 @@
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="K60" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -2490,8 +5451,16 @@
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="K61" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -2503,8 +5472,16 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="K62" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -2516,8 +5493,16 @@
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -2529,8 +5514,16 @@
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="K64" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -2542,8 +5535,16 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="K65" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -2555,8 +5556,16 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="K66" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -2568,8 +5577,16 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="K67" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2581,32 +5598,52 @@
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="13" t="s">
+      <c r="K68" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="15" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="11"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="K69" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -2618,8 +5655,16 @@
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="K71" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2631,8 +5676,16 @@
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="K72" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -2644,8 +5697,16 @@
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="K73" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -2657,8 +5718,16 @@
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="K74" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -2670,8 +5739,16 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="K75" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -2683,16 +5760,28 @@
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="K76" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="C77" s="1" t="s">
         <v>149</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -2702,8 +5791,16 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="K78" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -2715,8 +5812,16 @@
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="K79" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -2728,8 +5833,16 @@
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="K80" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -2741,8 +5854,16 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="K81" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -2754,34 +5875,54 @@
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="11" t="s">
+      <c r="K82" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="13"/>
+      <c r="C83" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
+      <c r="K83" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -2793,8 +5934,16 @@
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="K85" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>157</v>
       </c>
@@ -2806,8 +5955,16 @@
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="K86" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>159</v>
       </c>
@@ -2819,8 +5976,16 @@
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="K87" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -2832,8 +5997,16 @@
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="K88" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>163</v>
       </c>
@@ -2845,8 +6018,16 @@
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="K89" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -2859,8 +6040,16 @@
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="K90" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -2872,8 +6061,16 @@
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="K91" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -2887,8 +6084,16 @@
         <v>270</v>
       </c>
       <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="K92" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -2900,8 +6105,16 @@
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="K93" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -2913,8 +6126,16 @@
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="K94" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -2926,8 +6147,16 @@
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="K95" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -2939,8 +6168,16 @@
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="K96" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -2952,8 +6189,16 @@
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="K97" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -2963,8 +6208,16 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="K98" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -2976,8 +6229,16 @@
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="K99" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -2989,8 +6250,16 @@
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="K100" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -3002,8 +6271,16 @@
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="K101" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -3015,8 +6292,16 @@
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="K102" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -3028,8 +6313,16 @@
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="K103" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>196</v>
       </c>
@@ -3041,8 +6334,16 @@
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="K104" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -3054,8 +6355,16 @@
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="K105" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>198</v>
       </c>
@@ -3067,8 +6376,16 @@
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="K106" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>199</v>
       </c>
@@ -3080,8 +6397,16 @@
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="K107" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>201</v>
       </c>
@@ -3091,8 +6416,16 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="K108" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>203</v>
       </c>
@@ -3104,8 +6437,16 @@
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="K109" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -3117,8 +6458,16 @@
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="K110" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -3130,8 +6479,16 @@
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="K111" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>305</v>
       </c>
@@ -3196,7 +6553,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E102">
+  <sortState ref="A1:E102">
     <sortCondition ref="C1:C13"/>
   </sortState>
   <mergeCells count="8">

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\11.19\fweb\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085139F-60D4-4A8F-B7B4-86E44813D0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1271,10 +1272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Major-Mandatory(MR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전공필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3743,12 +3740,16 @@
   </si>
   <si>
     <t>註冊會員</t>
+  </si>
+  <si>
+    <t>Major-Mandatory(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -3859,6 +3860,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3876,15 +3886,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4199,14 +4200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -4228,13 +4229,13 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="K2" s="17" t="s">
-        <v>321</v>
+      <c r="K2" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="17" t="s">
-        <v>321</v>
+      <c r="N2" s="11" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4250,12 +4251,12 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="K3" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4271,12 +4272,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="K4" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4291,13 +4292,13 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="K5" s="18" t="s">
-        <v>324</v>
+      <c r="K5" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4312,13 +4313,13 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="K6" s="17" t="s">
-        <v>326</v>
+      <c r="K6" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="17" t="s">
-        <v>326</v>
+      <c r="N6" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4334,12 +4335,12 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="K7" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4354,13 +4355,13 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="K8" s="17" t="s">
-        <v>329</v>
+      <c r="K8" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="17" t="s">
-        <v>329</v>
+      <c r="N8" s="11" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4376,12 +4377,12 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="K9" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4397,12 +4398,12 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="K10" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4417,13 +4418,13 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="K11" s="18" t="s">
-        <v>333</v>
+      <c r="K11" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="17" t="s">
-        <v>334</v>
+      <c r="N11" s="11" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4439,12 +4440,12 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="K12" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4459,13 +4460,13 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="K13" s="17" t="s">
-        <v>337</v>
+      <c r="K13" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4481,12 +4482,12 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="K14" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4501,13 +4502,13 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="K15" s="17" t="s">
-        <v>341</v>
+      <c r="K15" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4522,13 +4523,13 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="K16" s="18" t="s">
-        <v>343</v>
+      <c r="K16" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4541,13 +4542,13 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="K17" s="17" t="s">
-        <v>345</v>
+      <c r="K17" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4563,12 +4564,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="K18" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4583,13 +4584,13 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="K19" s="17" t="s">
-        <v>349</v>
+      <c r="K19" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="17" t="s">
-        <v>349</v>
+      <c r="N19" s="11" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4605,12 +4606,12 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="K20" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4625,13 +4626,13 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="K21" s="19" t="s">
-        <v>351</v>
+      <c r="K21" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4647,12 +4648,12 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="K22" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4668,12 +4669,12 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="K23" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4689,12 +4690,12 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="K24" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4710,12 +4711,12 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="K25" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4730,13 +4731,13 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="K26" s="18" t="s">
-        <v>361</v>
+      <c r="K26" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4752,12 +4753,12 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="K27" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4773,12 +4774,12 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="K28" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4794,12 +4795,12 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="K29" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4814,13 +4815,13 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="K30" s="19" t="s">
-        <v>367</v>
+      <c r="K30" s="13" t="s">
+        <v>366</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4836,12 +4837,12 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="K31" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4855,12 +4856,12 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="K32" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4875,13 +4876,13 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="K33" s="18" t="s">
-        <v>373</v>
+      <c r="K33" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4896,13 +4897,13 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="K34" s="18" t="s">
-        <v>375</v>
+      <c r="K34" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4918,12 +4919,12 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="K35" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4939,12 +4940,12 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="K36" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -4959,13 +4960,13 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="K37" s="17" t="s">
-        <v>381</v>
+      <c r="K37" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -4980,13 +4981,13 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="K38" s="18" t="s">
-        <v>383</v>
+      <c r="K38" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5001,13 +5002,13 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="K39" s="18" t="s">
-        <v>385</v>
+      <c r="K39" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -5023,12 +5024,12 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="K40" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5043,13 +5044,13 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="K41" s="17" t="s">
-        <v>389</v>
+      <c r="K41" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="17" t="s">
-        <v>389</v>
+      <c r="N41" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -5065,12 +5066,12 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="K42" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -5086,12 +5087,12 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="K43" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -5106,13 +5107,13 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="K44" s="17" t="s">
-        <v>392</v>
+      <c r="K44" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -5128,12 +5129,12 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="K45" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -5149,12 +5150,12 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="K46" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5169,13 +5170,13 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="K47" s="18" t="s">
-        <v>398</v>
+      <c r="K47" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5189,12 +5190,12 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="K48" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -5207,13 +5208,13 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="K49" s="17" t="s">
-        <v>402</v>
+      <c r="K49" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5228,13 +5229,13 @@
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="K50" s="17" t="s">
-        <v>404</v>
+      <c r="K50" s="11" t="s">
+        <v>403</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5248,44 +5249,44 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="K51" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="K52" s="18" t="s">
-        <v>408</v>
+      <c r="K52" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -5307,44 +5308,44 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="K54" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="17"/>
+      <c r="C55" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="K55" s="18" t="s">
-        <v>412</v>
+      <c r="K55" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -5368,12 +5369,12 @@
       </c>
       <c r="I57" s="6"/>
       <c r="K57" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5389,12 +5390,12 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="K58" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5410,12 +5411,12 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="K59" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5430,13 +5431,13 @@
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="K60" s="18" t="s">
-        <v>420</v>
+      <c r="K60" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5452,12 +5453,12 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="K61" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5472,13 +5473,13 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="K62" s="17" t="s">
-        <v>423</v>
+      <c r="K62" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -5494,12 +5495,12 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="K63" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -5515,12 +5516,12 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="K64" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -5535,13 +5536,13 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="K65" s="18" t="s">
-        <v>428</v>
+      <c r="K65" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -5557,12 +5558,12 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="K66" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -5578,12 +5579,12 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="K67" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5598,43 +5599,43 @@
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="K68" s="17" t="s">
-        <v>433</v>
+      <c r="K68" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16" t="s">
+      <c r="B69" s="17"/>
+      <c r="C69" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="11"/>
+      <c r="D69" s="14"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="K69" s="18" t="s">
-        <v>435</v>
+      <c r="K69" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -5656,12 +5657,12 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="K71" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -5677,12 +5678,12 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="K72" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5698,12 +5699,12 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="K73" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -5719,12 +5720,12 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="K74" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5739,13 +5740,13 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="K75" s="17" t="s">
-        <v>443</v>
+      <c r="K75" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5761,12 +5762,12 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="K76" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5792,12 +5793,12 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="K78" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5812,13 +5813,13 @@
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
-      <c r="K79" s="18" t="s">
-        <v>449</v>
+      <c r="K79" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5834,12 +5835,12 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="K80" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5854,13 +5855,13 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
-      <c r="K81" s="17" t="s">
-        <v>453</v>
+      <c r="K81" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5876,44 +5877,44 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="K82" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="K83" s="18" t="s">
-        <v>457</v>
+      <c r="K83" s="12" t="s">
+        <v>456</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -5934,13 +5935,13 @@
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
-      <c r="K85" s="18" t="s">
-        <v>459</v>
+      <c r="K85" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5955,13 +5956,13 @@
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
-      <c r="K86" s="17" t="s">
-        <v>461</v>
+      <c r="K86" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5977,12 +5978,12 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="K87" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5998,12 +5999,12 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="K88" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -6019,12 +6020,12 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="K89" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -6041,12 +6042,12 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="K90" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -6062,12 +6063,12 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="K91" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -6085,12 +6086,12 @@
       </c>
       <c r="I92" s="6"/>
       <c r="K92" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -6106,12 +6107,12 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="K93" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -6127,12 +6128,12 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="K94" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6147,13 +6148,13 @@
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="K95" s="17" t="s">
-        <v>475</v>
+      <c r="K95" s="11" t="s">
+        <v>474</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6168,13 +6169,13 @@
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
-      <c r="K96" s="17" t="s">
-        <v>477</v>
+      <c r="K96" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6189,13 +6190,13 @@
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
-      <c r="K97" s="18" t="s">
-        <v>479</v>
+      <c r="K97" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6209,12 +6210,12 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="K98" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -6230,12 +6231,12 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="K99" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6250,13 +6251,13 @@
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="K100" s="17" t="s">
-        <v>485</v>
+      <c r="K100" s="11" t="s">
+        <v>484</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
-      <c r="N100" s="17" t="s">
-        <v>486</v>
+      <c r="N100" s="11" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6272,12 +6273,12 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="K101" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6293,12 +6294,12 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="K102" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6313,13 +6314,13 @@
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
-      <c r="K103" s="18" t="s">
-        <v>491</v>
+      <c r="K103" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="N103" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6334,13 +6335,13 @@
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="K104" s="17" t="s">
-        <v>493</v>
+      <c r="K104" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6355,13 +6356,13 @@
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="K105" s="18" t="s">
-        <v>495</v>
+      <c r="K105" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6377,12 +6378,12 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="K106" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6397,13 +6398,13 @@
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
-      <c r="K107" s="17" t="s">
-        <v>498</v>
+      <c r="K107" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6416,13 +6417,13 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
-      <c r="K108" s="17" t="s">
-        <v>493</v>
+      <c r="K108" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6437,13 +6438,13 @@
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-      <c r="K109" s="18" t="s">
-        <v>500</v>
+      <c r="K109" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
       <c r="N109" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6459,12 +6460,12 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="K110" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6480,12 +6481,12 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="K111" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
       <c r="N111" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6538,10 +6539,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>318</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -6549,11 +6550,11 @@
         <v>317</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E102">
     <sortCondition ref="C1:C13"/>
   </sortState>
   <mergeCells count="8">

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085139F-60D4-4A8F-B7B4-86E44813D0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E2C9B-E56F-4DEB-B59C-4B89DC465360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="508">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3743,6 +3743,14 @@
   </si>
   <si>
     <t>Major-Mandatory(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사행정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic resources</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3826,7 +3834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3867,6 +3875,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4201,10 +4212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5258,15 +5269,15 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
@@ -5282,11 +5293,11 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -5317,15 +5328,15 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
@@ -5341,11 +5352,11 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -5609,14 +5620,14 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="15"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
@@ -5632,10 +5643,10 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -5886,15 +5897,15 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="14" t="s">
+      <c r="B83" s="17"/>
+      <c r="C83" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
@@ -5910,11 +5921,11 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -6551,6 +6562,14 @@
       </c>
       <c r="C119" s="9" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>506</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E2C9B-E56F-4DEB-B59C-4B89DC465360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD007B8-DD3F-4E48-B21A-BEB050562DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="510">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3751,6 +3751,14 @@
   </si>
   <si>
     <t>academic resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT융합대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college of IT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3834,7 +3842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3875,6 +3883,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4212,10 +4223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5269,15 +5280,15 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
@@ -5293,11 +5304,11 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -5328,15 +5339,15 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
@@ -5352,11 +5363,11 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -5620,14 +5631,14 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="20" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="15"/>
+      <c r="D69" s="16"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
@@ -5643,10 +5654,10 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -5897,15 +5908,15 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="15" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
@@ -5921,11 +5932,11 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -6570,6 +6581,14 @@
       </c>
       <c r="C120" s="14" t="s">
         <v>507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>508</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD007B8-DD3F-4E48-B21A-BEB050562DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5516E2-8D2F-44B3-A004-CA85BFFE96D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2500" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="515">
   <si>
     <t>입학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3759,6 +3759,26 @@
   </si>
   <si>
     <t>college of IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고지서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3842,7 +3862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3883,6 +3903,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4223,10 +4246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5280,15 +5303,15 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
       <c r="G52" s="6" t="s">
         <v>242</v>
       </c>
@@ -5304,11 +5327,11 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -5339,15 +5362,15 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
       <c r="G55" s="6" t="s">
         <v>244</v>
       </c>
@@ -5363,11 +5386,11 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -5631,14 +5654,14 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="16"/>
+      <c r="D69" s="17"/>
       <c r="G69" s="6" t="s">
         <v>295</v>
       </c>
@@ -5654,10 +5677,10 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -5908,15 +5931,15 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="16" t="s">
+      <c r="B83" s="19"/>
+      <c r="C83" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
       <c r="G83" s="6" t="s">
         <v>262</v>
       </c>
@@ -5932,11 +5955,11 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -6589,6 +6612,30 @@
       </c>
       <c r="C121" s="15" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>510</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>511</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>513</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5516E2-8D2F-44B3-A004-CA85BFFE96D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F0443-9EEA-4A98-83B9-8C639D1F6E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2500" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1224,18 +1224,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>register class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예비수강신청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pre-register class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집요강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3779,6 +3771,14 @@
   </si>
   <si>
     <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register for class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-register for class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4248,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4275,12 +4275,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="K2" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4296,12 +4296,12 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="K3" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4317,12 +4317,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="K4" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4338,12 +4338,12 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="K5" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4359,12 +4359,12 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="K6" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4380,12 +4380,12 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="K7" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4401,12 +4401,12 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="K8" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4422,12 +4422,12 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="K9" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4443,12 +4443,12 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="K10" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4464,12 +4464,12 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="K11" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4485,12 +4485,12 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="K12" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4506,12 +4506,12 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="K13" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4527,12 +4527,12 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="K14" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4548,12 +4548,12 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="K15" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4569,12 +4569,12 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="K16" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4588,12 +4588,12 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="K17" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4609,12 +4609,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="K18" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4630,12 +4630,12 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="K19" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4651,12 +4651,12 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="K20" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4672,12 +4672,12 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="K21" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4693,12 +4693,12 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="K22" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4714,12 +4714,12 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="K23" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4735,12 +4735,12 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="K24" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4756,12 +4756,12 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="K25" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4777,12 +4777,12 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="K26" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4798,12 +4798,12 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="K27" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4819,12 +4819,12 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="K28" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4840,12 +4840,12 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="K29" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -4861,12 +4861,12 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="K30" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4882,12 +4882,12 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="K31" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4901,12 +4901,12 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="K32" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -4922,12 +4922,12 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="K33" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -4943,12 +4943,12 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="K34" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -4964,12 +4964,12 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="K35" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4985,12 +4985,12 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="K36" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -5006,12 +5006,12 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="K37" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -5027,12 +5027,12 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="K38" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5048,12 +5048,12 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="K39" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -5069,12 +5069,12 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="K40" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5090,12 +5090,12 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="K41" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -5111,12 +5111,12 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="K42" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -5132,12 +5132,12 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="K43" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -5153,12 +5153,12 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="K44" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -5174,12 +5174,12 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="K45" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -5195,12 +5195,12 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="K46" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5216,12 +5216,12 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="K47" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5235,12 +5235,12 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="K48" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -5254,12 +5254,12 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="K49" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5275,12 +5275,12 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="K50" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -5294,12 +5294,12 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="K51" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -5318,12 +5318,12 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="K52" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5353,12 +5353,12 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="K54" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -5377,12 +5377,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="K55" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5414,12 +5414,12 @@
       </c>
       <c r="I57" s="6"/>
       <c r="K57" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5435,12 +5435,12 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="K58" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5456,12 +5456,12 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="K59" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5477,12 +5477,12 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="K60" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5498,12 +5498,12 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="K61" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5519,12 +5519,12 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="K62" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -5540,12 +5540,12 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="K63" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -5561,12 +5561,12 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="K64" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -5582,12 +5582,12 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="K65" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -5603,12 +5603,12 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="K66" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -5624,12 +5624,12 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="K67" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5645,12 +5645,12 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="K68" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5668,12 +5668,12 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="K69" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5702,12 +5702,12 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="K71" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -5723,12 +5723,12 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="K72" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5744,12 +5744,12 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="K73" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -5765,12 +5765,12 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="K74" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5786,12 +5786,12 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="K75" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5807,12 +5807,12 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="K76" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5838,12 +5838,12 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="K78" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5859,12 +5859,12 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="K79" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5880,12 +5880,12 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="K80" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5901,12 +5901,12 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="K81" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5922,12 +5922,12 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="K82" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5946,12 +5946,12 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="K83" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5981,12 +5981,12 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="K85" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -6002,12 +6002,12 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="K86" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -6023,12 +6023,12 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="K87" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -6044,12 +6044,12 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="K88" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -6065,12 +6065,12 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="K89" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -6087,12 +6087,12 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="K90" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -6108,12 +6108,12 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="K91" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -6131,12 +6131,12 @@
       </c>
       <c r="I92" s="6"/>
       <c r="K92" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -6152,12 +6152,12 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="K93" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -6173,12 +6173,12 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="K94" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6194,12 +6194,12 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="K95" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6215,12 +6215,12 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="K96" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6236,12 +6236,12 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="K97" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6255,12 +6255,12 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="K98" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -6276,12 +6276,12 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="K99" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6297,12 +6297,12 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="K100" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6318,12 +6318,12 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="K101" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6339,12 +6339,12 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="K102" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6360,12 +6360,12 @@
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="K103" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="N103" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6381,12 +6381,12 @@
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="K104" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6402,12 +6402,12 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="K105" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6423,12 +6423,12 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="K106" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6444,12 +6444,12 @@
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="K107" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6463,12 +6463,12 @@
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="K108" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6484,12 +6484,12 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="K109" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
       <c r="N109" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6505,12 +6505,12 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="K110" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
       <c r="N110" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6526,12 +6526,12 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="K111" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
       <c r="N111" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6539,84 +6539,84 @@
         <v>305</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>306</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>308</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>27</v>
@@ -6624,18 +6624,18 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/files/용어정리.xlsx
+++ b/files/용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\gachonComEng\fweb\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F0443-9EEA-4A98-83B9-8C639D1F6E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2145454-212E-48F0-AFCA-71DBAA06BA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2500" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
